--- a/temp/sample/topup/topup_example.xlsx
+++ b/temp/sample/topup/topup_example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sukma\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyWork\Hyppe\Source\Backend\backend_premium_console\temp\sample\topup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C038910F-9B59-4F94-ADEC-6EF49272C573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72181A34-1AC0-4C3C-B0E5-9B6AE7F33CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{29648E4E-6316-4F75-A6F9-A0E9176AA67C}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{29648E4E-6316-4F75-A6F9-A0E9176AA67C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,13 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Tooup</t>
-  </si>
-  <si>
     <t>sukma_metal@yahoo.com</t>
   </si>
   <si>
     <t>ahmad.taslim07@gmail.com</t>
+  </si>
+  <si>
+    <t>Topup</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,12 +430,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>500000</v>
@@ -443,7 +443,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>900000</v>

--- a/temp/sample/topup/topup_example.xlsx
+++ b/temp/sample/topup/topup_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyWork\Hyppe\Source\Backend\backend_premium_console\temp\sample\topup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72181A34-1AC0-4C3C-B0E5-9B6AE7F33CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1208C8-7872-45DE-BF99-313A22E17113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{29648E4E-6316-4F75-A6F9-A0E9176AA67C}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{29648E4E-6316-4F75-A6F9-A0E9176AA67C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Email</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>Topup</t>
+  </si>
+  <si>
+    <t>Npwp</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -76,7 +85,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -96,8 +105,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -413,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6727114-60AC-4251-B647-1CFB564AFC54}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,28 +434,37 @@
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>500000</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>900000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
